--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>985029.8090507363</v>
+        <v>984289.3462300135</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406077</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
         <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>147.861754451</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642671</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874605</v>
+        <v>65.8728397687461</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247065</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>80.6036588212676</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715467</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C12" t="n">
-        <v>40.99189795560306</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192608</v>
+        <v>15.72846453192614</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268833</v>
       </c>
       <c r="F12" t="n">
-        <v>13.3526113606712</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G12" t="n">
-        <v>5.358526637115014</v>
+        <v>121.3081374934066</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>183.3159405165626</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U12" t="n">
         <v>225.9237248774628</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.0563841707648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459169</v>
+        <v>73.96609474459174</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922462</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591516</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549968</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E13" t="n">
-        <v>14.7173616138565</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021857</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028123</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304849</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892989</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437358</v>
+        <v>35.45957938437363</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529484</v>
+        <v>88.3787084052949</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494628</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911153</v>
+        <v>120.4210422911154</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038783</v>
+        <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632448</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938212</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>26.94921058137348</v>
       </c>
       <c r="G14" t="n">
-        <v>283.084518104593</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711095</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642671</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>65.87283976874605</v>
       </c>
       <c r="T14" t="n">
-        <v>81.18363822787371</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U14" t="n">
         <v>119.5889224048975</v>
@@ -1667,13 +1667,13 @@
         <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847003</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>13.3526113606712</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115014</v>
+        <v>37.81399486852262</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
         <v>34.981352946227</v>
       </c>
       <c r="T15" t="n">
-        <v>183.3159405165626</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475011</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X15" t="n">
         <v>74.0563841707648</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459169</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D17" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E17" t="n">
         <v>144.5508808461439</v>
@@ -1859,7 +1859,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.13722242850055</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1968,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>57.35498624824157</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V19" t="n">
-        <v>195.1910385061426</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047308</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D20" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E20" t="n">
         <v>144.5508808461439</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>25.79484774266516</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>47.41521542020157</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170862</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>13.2567039913463</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771008</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047308</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V23" t="n">
         <v>90.37276924401701</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>76.23535388968476</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>154.3905712167535</v>
+        <v>14.31549393480171</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>113.1122544509812</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986376</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>7.601020176948964</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5.906416851771175</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>133.4862140860416</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T27" t="n">
         <v>199.0829306929842</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850287</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925556</v>
@@ -2798,19 +2798,19 @@
         <v>204.638981342231</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938099</v>
       </c>
       <c r="F29" t="n">
         <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588537</v>
+        <v>264.7570588588538</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253702</v>
+        <v>184.2935426253703</v>
       </c>
       <c r="I29" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068746</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300681</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673134</v>
+        <v>70.8559548367314</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591582</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916829</v>
+        <v>177.708198191683</v>
       </c>
       <c r="W29" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389611</v>
       </c>
       <c r="X29" t="n">
         <v>219.6870404000171</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776017</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>24.99453493699975</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,13 +2877,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176949021</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048769</v>
+        <v>16.65389370048775</v>
       </c>
       <c r="T30" t="n">
-        <v>133.0443398814452</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>75.87966459901081</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348537</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017591</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454193</v>
+        <v>17.72191034454199</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730925</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863427</v>
+        <v>17.13212013863433</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955554</v>
+        <v>70.0512491595556</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920697</v>
+        <v>76.94012818920703</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742863</v>
       </c>
       <c r="V31" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453761</v>
       </c>
       <c r="W31" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581391</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058517</v>
+        <v>75.66559511058523</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364287</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
         <v>215.2288314925555</v>
@@ -3035,10 +3035,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068735</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300669</v>
+        <v>47.54538052300672</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591581</v>
@@ -3095,7 +3095,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="33">
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.4891233714153</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>22.6644387098637</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>40.91202035955124</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.49414262488439</v>
+        <v>79.03062158184454</v>
       </c>
       <c r="S33" t="n">
         <v>166.6979539789397</v>
@@ -3165,7 +3165,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
-        <v>82.75652687097323</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>101.6509228824676</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C34" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454187</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730913</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863421</v>
+        <v>17.13212013863424</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955548</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742862</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V35" t="n">
         <v>90.37276924401701</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>99.41789916220324</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>61.68270773054996</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>113.1122544509813</v>
       </c>
       <c r="U37" t="n">
         <v>48.92726692662036</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
@@ -3518,7 +3518,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149218</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>52.35423637388434</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>121.5977083105079</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9237248774628</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771005</v>
+        <v>195.1910385061425</v>
       </c>
       <c r="W40" t="n">
-        <v>229.5763935189057</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242685</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6979539789397</v>
+        <v>99.87013822176702</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
@@ -3879,10 +3879,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>155.9973037449475</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475624</v>
+        <v>6.084173352475653</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755497</v>
       </c>
       <c r="V43" t="n">
-        <v>151.338276657944</v>
+        <v>31.23762820864471</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>185.7236316707068</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242682</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>93.36842654791685</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
         <v>166.6979539789397</v>
@@ -4113,7 +4113,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>11.90057203424195</v>
+        <v>163.0446061834652</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.1006484492993</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475624</v>
+        <v>126.1848218017749</v>
       </c>
       <c r="U46" t="n">
         <v>65.40674103755494</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1244.275983741028</v>
+        <v>491.5679791206667</v>
       </c>
       <c r="C11" t="n">
-        <v>1008.360538550831</v>
+        <v>255.6525339304697</v>
       </c>
       <c r="D11" t="n">
-        <v>1008.360538550831</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E11" t="n">
-        <v>859.0052310245683</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F11" t="n">
-        <v>581.0663979851755</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037684</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608218</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020856</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326546</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550274</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241014</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.019791121358</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708066</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1365.072875059106</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1244.275983741028</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1244.275983741028</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>1244.275983741028</v>
+        <v>826.5385846277735</v>
       </c>
       <c r="X11" t="n">
-        <v>1244.275983741028</v>
+        <v>745.1207474345738</v>
       </c>
       <c r="Y11" t="n">
-        <v>1244.275983741028</v>
+        <v>745.1207474345738</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>265.8647969130413</v>
+        <v>249.938544209586</v>
       </c>
       <c r="C12" t="n">
-        <v>224.4588393821292</v>
+        <v>208.5325866786737</v>
       </c>
       <c r="D12" t="n">
-        <v>208.5715014710927</v>
+        <v>192.6452487676372</v>
       </c>
       <c r="E12" t="n">
-        <v>49.33404646563723</v>
+        <v>166.4548655123965</v>
       </c>
       <c r="F12" t="n">
-        <v>35.84656024273702</v>
+        <v>152.9673792894962</v>
       </c>
       <c r="G12" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H12" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I12" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J12" t="n">
-        <v>54.79813383722129</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K12" t="n">
-        <v>223.0613211674321</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L12" t="n">
-        <v>223.0613211674321</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M12" t="n">
-        <v>496.4109802811673</v>
+        <v>599.7226253614408</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211003</v>
+        <v>976.3422254013741</v>
       </c>
       <c r="O12" t="n">
-        <v>1185.002115453612</v>
+        <v>1288.313760533886</v>
       </c>
       <c r="P12" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1353.3135820008</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T12" t="n">
-        <v>1168.145965317404</v>
+        <v>1285.266784364163</v>
       </c>
       <c r="U12" t="n">
-        <v>939.9401826128958</v>
+        <v>1057.061001659655</v>
       </c>
       <c r="V12" t="n">
-        <v>704.7880743811531</v>
+        <v>821.9088934279127</v>
       </c>
       <c r="W12" t="n">
-        <v>450.5507176529516</v>
+        <v>567.6715366997112</v>
       </c>
       <c r="X12" t="n">
-        <v>375.7462891976336</v>
+        <v>359.8200364941783</v>
       </c>
       <c r="Y12" t="n">
-        <v>301.0330621828945</v>
+        <v>285.1068094794392</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858022</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081101</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459892</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138109</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661154</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G13" t="n">
-        <v>76.3705604294677</v>
+        <v>76.37056042946784</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184295</v>
+        <v>47.57254097184304</v>
       </c>
       <c r="I13" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>30.43390707393397</v>
+        <v>84.1567902022048</v>
       </c>
       <c r="K13" t="n">
-        <v>164.6670499418627</v>
+        <v>218.3899330701335</v>
       </c>
       <c r="L13" t="n">
-        <v>355.4987457100909</v>
+        <v>278.8221938159761</v>
       </c>
       <c r="M13" t="n">
-        <v>560.0046495552825</v>
+        <v>483.3280976611677</v>
       </c>
       <c r="N13" t="n">
-        <v>768.183083629823</v>
+        <v>691.5065317357081</v>
       </c>
       <c r="O13" t="n">
-        <v>926.5724189269722</v>
+        <v>877.7311657640605</v>
       </c>
       <c r="P13" t="n">
-        <v>1081.219273571222</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571223</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S13" t="n">
-        <v>956.130093985698</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877724</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493627</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936907</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069449</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591424</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658271</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>581.0663979851755</v>
+        <v>535.6151396081693</v>
       </c>
       <c r="C14" t="n">
-        <v>581.0663979851755</v>
+        <v>535.6151396081693</v>
       </c>
       <c r="D14" t="n">
-        <v>581.0663979851755</v>
+        <v>310.3965127516336</v>
       </c>
       <c r="E14" t="n">
-        <v>581.0663979851755</v>
+        <v>57.65533190360418</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851755</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037685</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608218</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020955</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326556</v>
@@ -5291,37 +5291,37 @@
         <v>1084.019791121359</v>
       </c>
       <c r="O14" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S14" t="n">
-        <v>1455.157131708066</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1373.153456730416</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1252.356565412338</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V14" t="n">
-        <v>1054.340749818982</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W14" t="n">
-        <v>834.6191662990825</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="X14" t="n">
-        <v>834.6191662990825</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.6191662990825</v>
+        <v>789.1679079220763</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>398.9118686632562</v>
+        <v>431.6951699071022</v>
       </c>
       <c r="C15" t="n">
-        <v>224.4588393821292</v>
+        <v>257.2421406259753</v>
       </c>
       <c r="D15" t="n">
-        <v>208.5715014710927</v>
+        <v>241.3548027149388</v>
       </c>
       <c r="E15" t="n">
-        <v>49.33404646563723</v>
+        <v>82.11734770948331</v>
       </c>
       <c r="F15" t="n">
-        <v>35.84656024273702</v>
+        <v>68.62986148658311</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I15" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J15" t="n">
-        <v>54.79813383722129</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K15" t="n">
         <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>223.0613211674321</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M15" t="n">
-        <v>599.6809212073651</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="N15" t="n">
-        <v>976.3005212472981</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O15" t="n">
-        <v>1288.27205637981</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P15" t="n">
-        <v>1418.383708616426</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751015</v>
+        <v>1402.023135948103</v>
       </c>
       <c r="T15" t="n">
-        <v>1301.193037067618</v>
+        <v>1200.92926656125</v>
       </c>
       <c r="U15" t="n">
-        <v>1072.987254363111</v>
+        <v>1105.770555606957</v>
       </c>
       <c r="V15" t="n">
-        <v>837.835146131368</v>
+        <v>870.6184473752141</v>
       </c>
       <c r="W15" t="n">
-        <v>583.5977894031664</v>
+        <v>749.4281623972273</v>
       </c>
       <c r="X15" t="n">
-        <v>508.7933609478484</v>
+        <v>674.6237339419093</v>
       </c>
       <c r="Y15" t="n">
-        <v>434.0801339331094</v>
+        <v>466.8634351769554</v>
       </c>
     </row>
     <row r="16">
@@ -5413,40 +5413,40 @@
         <v>194.4516414858022</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081101</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459892</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138109</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F16" t="n">
         <v>112.7840650661154</v>
       </c>
       <c r="G16" t="n">
-        <v>76.3705604294677</v>
+        <v>76.37056042946773</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184295</v>
+        <v>47.57254097184298</v>
       </c>
       <c r="I16" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J16" t="n">
-        <v>30.43390707393397</v>
+        <v>84.15679020220486</v>
       </c>
       <c r="K16" t="n">
-        <v>164.6670499418627</v>
+        <v>218.3899330701336</v>
       </c>
       <c r="L16" t="n">
-        <v>355.4987457100909</v>
+        <v>409.2216288383618</v>
       </c>
       <c r="M16" t="n">
-        <v>560.0046495552825</v>
+        <v>483.3280976611679</v>
       </c>
       <c r="N16" t="n">
-        <v>768.183083629823</v>
+        <v>676.5957735341108</v>
       </c>
       <c r="O16" t="n">
         <v>862.8204075624633</v>
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693739</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H17" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020856</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326546</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550274</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241014</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N17" t="n">
-        <v>1084.019791121358</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O17" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
         <v>1507.62865247297</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>285.852622900633</v>
+        <v>241.3891812323343</v>
       </c>
       <c r="C18" t="n">
-        <v>111.399593619506</v>
+        <v>66.93615195120728</v>
       </c>
       <c r="D18" t="n">
-        <v>111.399593619506</v>
+        <v>66.93615195120728</v>
       </c>
       <c r="E18" t="n">
-        <v>111.399593619506</v>
+        <v>66.93615195120728</v>
       </c>
       <c r="F18" t="n">
-        <v>111.399593619506</v>
+        <v>66.93615195120728</v>
       </c>
       <c r="G18" t="n">
-        <v>111.399593619506</v>
+        <v>66.93615195120728</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I18" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J18" t="n">
-        <v>54.79813383722129</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K18" t="n">
-        <v>54.79813383722129</v>
+        <v>65.5179567847195</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7913802412344</v>
+        <v>353.1729734040491</v>
       </c>
       <c r="M18" t="n">
-        <v>496.4109802811673</v>
+        <v>729.7925734439823</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211003</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453612</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P18" t="n">
-        <v>1418.383708616426</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R18" t="n">
-        <v>1437.357835893785</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1379.423506350107</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T18" t="n">
-        <v>1379.423506350107</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U18" t="n">
-        <v>1151.217723645599</v>
+        <v>839.6764121065272</v>
       </c>
       <c r="V18" t="n">
-        <v>916.0656154138564</v>
+        <v>839.6764121065272</v>
       </c>
       <c r="W18" t="n">
-        <v>661.8282586856549</v>
+        <v>825.2163172228891</v>
       </c>
       <c r="X18" t="n">
-        <v>661.8282586856549</v>
+        <v>617.3648170173562</v>
       </c>
       <c r="Y18" t="n">
-        <v>454.067959920701</v>
+        <v>409.6045182524023</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947718</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L19" t="n">
         <v>94.69987566531981</v>
@@ -5698,25 +5698,25 @@
         <v>326.6579621681118</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681118</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681118</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V19" t="n">
-        <v>80.07381526633102</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810891</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C20" t="n">
-        <v>743.293233685241</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230541</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693735</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243296</v>
+        <v>307.5851632243305</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H20" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020955</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K20" t="n">
         <v>226.9372683326556</v>
@@ -5759,7 +5759,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5768,34 +5768,34 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U20" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V20" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y20" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>141.1847825900245</v>
+        <v>513.0588010217677</v>
       </c>
       <c r="C21" t="n">
-        <v>141.1847825900245</v>
+        <v>338.6057717406408</v>
       </c>
       <c r="D21" t="n">
-        <v>141.1847825900245</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E21" t="n">
-        <v>141.1847825900245</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F21" t="n">
-        <v>141.1847825900245</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G21" t="n">
-        <v>141.1847825900245</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H21" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I21" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393397</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K21" t="n">
-        <v>198.6970944041448</v>
+        <v>119.7913802412349</v>
       </c>
       <c r="L21" t="n">
-        <v>486.3521110234744</v>
+        <v>119.7913802412349</v>
       </c>
       <c r="M21" t="n">
-        <v>496.4109802811673</v>
+        <v>496.4109802811682</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211003</v>
+        <v>873.0305803211014</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453612</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616426</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1437.357835893785</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1437.357835893785</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="T21" t="n">
-        <v>1236.263966506933</v>
+        <v>1236.263966506934</v>
       </c>
       <c r="U21" t="n">
-        <v>1008.058183802425</v>
+        <v>1210.208564746666</v>
       </c>
       <c r="V21" t="n">
-        <v>772.9060755706819</v>
+        <v>975.0564565149232</v>
       </c>
       <c r="W21" t="n">
-        <v>725.0119185805793</v>
+        <v>720.8190997867216</v>
       </c>
       <c r="X21" t="n">
-        <v>517.1604183750464</v>
+        <v>720.8190997867216</v>
       </c>
       <c r="Y21" t="n">
-        <v>309.4001196100925</v>
+        <v>513.0588010217677</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947718</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L22" t="n">
         <v>94.69987566531981</v>
@@ -5932,28 +5932,28 @@
         <v>326.6579621681118</v>
       </c>
       <c r="R22" t="n">
-        <v>157.7931334639843</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="S22" t="n">
-        <v>157.7931334639843</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="T22" t="n">
-        <v>144.4025233717153</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765434</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633102</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393397</v>
+        <v>212.6893458703304</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E23" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693744</v>
       </c>
       <c r="F23" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372717</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550285</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6005,7 +6005,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
         <v>1521.6953536967</v>
@@ -6026,7 +6026,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
         <v>1169.663137131896</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>989.7696459755631</v>
+        <v>513.0588010217677</v>
       </c>
       <c r="C24" t="n">
-        <v>815.3166166944361</v>
+        <v>338.6057717406408</v>
       </c>
       <c r="D24" t="n">
-        <v>666.3822070331848</v>
+        <v>189.6713620793895</v>
       </c>
       <c r="E24" t="n">
-        <v>507.1447520277294</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F24" t="n">
-        <v>360.6101940546143</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H24" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J24" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K24" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="L24" t="n">
-        <v>318.0889236932636</v>
+        <v>342.4531504565509</v>
       </c>
       <c r="M24" t="n">
-        <v>694.7085237331968</v>
+        <v>719.0727504964841</v>
       </c>
       <c r="N24" t="n">
-        <v>1071.32812377313</v>
+        <v>1095.692350536417</v>
       </c>
       <c r="O24" t="n">
-        <v>1383.299658905642</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T24" t="n">
-        <v>1521.6953536967</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>1521.6953536967</v>
+        <v>839.6764121065272</v>
       </c>
       <c r="V24" t="n">
-        <v>1521.6953536967</v>
+        <v>604.5243038747844</v>
       </c>
       <c r="W24" t="n">
-        <v>1365.745281760585</v>
+        <v>590.0642089911463</v>
       </c>
       <c r="X24" t="n">
-        <v>1365.745281760585</v>
+        <v>590.0642089911463</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.984982995631</v>
+        <v>590.0642089911463</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
         <v>34.2676149194772</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881259</v>
@@ -6163,34 +6163,34 @@
         <v>302.4105425462478</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240509</v>
+        <v>209.235844103393</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627275</v>
+        <v>194.3286177420697</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6893458703304</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="X25" t="n">
-        <v>212.6893458703304</v>
+        <v>144.6887095496726</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.43390707393399</v>
+        <v>144.6887095496726</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028715</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601852</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754844</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450501</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J26" t="n">
-        <v>234.188401121006</v>
+        <v>234.1884011210059</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491193</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606063</v>
@@ -6245,16 +6245,16 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953159</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
         <v>2544.422757287607</v>
@@ -6266,7 +6266,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
         <v>1703.224751824715</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>348.207790394815</v>
+        <v>230.3230605788729</v>
       </c>
       <c r="C27" t="n">
-        <v>173.7547611136879</v>
+        <v>207.429688144667</v>
       </c>
       <c r="D27" t="n">
-        <v>173.7547611136879</v>
+        <v>207.429688144667</v>
       </c>
       <c r="E27" t="n">
-        <v>166.0769629551536</v>
+        <v>199.7518899861327</v>
       </c>
       <c r="F27" t="n">
-        <v>166.0769629551536</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G27" t="n">
-        <v>166.0769629551536</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235048</v>
+        <v>79.69031420235049</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
       </c>
       <c r="L27" t="n">
-        <v>535.608518151891</v>
+        <v>535.6085181518908</v>
       </c>
       <c r="M27" t="n">
-        <v>923.2675763763536</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N27" t="n">
         <v>1336.893829743946</v>
@@ -6324,31 +6324,31 @@
         <v>1882.246958039272</v>
       </c>
       <c r="Q27" t="n">
-        <v>1985.558603119545</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1850.724043436674</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T27" t="n">
-        <v>1649.630174049822</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U27" t="n">
-        <v>1421.424391345314</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V27" t="n">
-        <v>1186.272283113571</v>
+        <v>1068.387553297629</v>
       </c>
       <c r="W27" t="n">
-        <v>932.0349263853698</v>
+        <v>814.1501965694276</v>
       </c>
       <c r="X27" t="n">
-        <v>724.1834261798369</v>
+        <v>606.2986963638948</v>
       </c>
       <c r="Y27" t="n">
-        <v>516.4231274148831</v>
+        <v>398.5383975989409</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.8889674209086</v>
+        <v>91.32388724474187</v>
       </c>
       <c r="C28" t="n">
-        <v>83.51244133992287</v>
+        <v>73.94736116375616</v>
       </c>
       <c r="D28" t="n">
-        <v>83.51244133992287</v>
+        <v>75.36166255139338</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992287</v>
+        <v>78.93565920695735</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992287</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998153</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>56.6726970090045</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906317</v>
+        <v>69.62333933862381</v>
       </c>
       <c r="K28" t="n">
-        <v>59.15979528460637</v>
+        <v>73.45704718416701</v>
       </c>
       <c r="L28" t="n">
-        <v>210.1018117640529</v>
+        <v>282.4329276056771</v>
       </c>
       <c r="M28" t="n">
-        <v>284.208280586859</v>
+        <v>356.5393964284832</v>
       </c>
       <c r="N28" t="n">
-        <v>361.987279639014</v>
+        <v>582.8620151563056</v>
       </c>
       <c r="O28" t="n">
-        <v>566.3560983206484</v>
+        <v>787.2308338379399</v>
       </c>
       <c r="P28" t="n">
-        <v>739.1471376181798</v>
+        <v>811.4782534598039</v>
       </c>
       <c r="Q28" t="n">
-        <v>821.0433336359706</v>
+        <v>811.4782534598039</v>
       </c>
       <c r="R28" t="n">
-        <v>803.7381617787643</v>
+        <v>794.1730816025976</v>
       </c>
       <c r="S28" t="n">
-        <v>732.9793242438597</v>
+        <v>723.4142440676929</v>
       </c>
       <c r="T28" t="n">
-        <v>655.2620230426405</v>
+        <v>645.6969428664738</v>
       </c>
       <c r="U28" t="n">
-        <v>517.6229363009372</v>
+        <v>508.0578561247705</v>
       </c>
       <c r="V28" t="n">
-        <v>414.4981049419715</v>
+        <v>404.9330247658048</v>
       </c>
       <c r="W28" t="n">
-        <v>276.6405917519321</v>
+        <v>267.0755115757654</v>
       </c>
       <c r="X28" t="n">
-        <v>200.210697700836</v>
+        <v>190.6456175246693</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9777754042271</v>
+        <v>121.4126952280604</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607516</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514025</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754196</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028728</v>
+        <v>809.8470710028721</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601864</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754857</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450505</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491196</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991902</v>
@@ -6497,13 +6497,13 @@
         <v>2544.422757287608</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790959</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367766</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953607</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
         <v>1703.224751824716</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.485539360012</v>
+        <v>524.8510494589937</v>
       </c>
       <c r="C30" t="n">
-        <v>510.032510078885</v>
+        <v>350.3980201778667</v>
       </c>
       <c r="D30" t="n">
-        <v>361.0981004176337</v>
+        <v>201.4636105166154</v>
       </c>
       <c r="E30" t="n">
-        <v>201.8606454121782</v>
+        <v>193.785812358081</v>
       </c>
       <c r="F30" t="n">
-        <v>55.32608743906317</v>
+        <v>193.785812358081</v>
       </c>
       <c r="G30" t="n">
         <v>55.32608743906317</v>
@@ -6546,10 +6546,10 @@
         <v>247.9535015325613</v>
       </c>
       <c r="L30" t="n">
-        <v>535.608518151891</v>
+        <v>535.6085181518908</v>
       </c>
       <c r="M30" t="n">
-        <v>923.2675763763536</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N30" t="n">
         <v>1336.893829743946</v>
@@ -6561,31 +6561,31 @@
         <v>1882.246958039272</v>
       </c>
       <c r="Q30" t="n">
-        <v>1985.558603119545</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119545</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T30" t="n">
-        <v>1834.348266168098</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U30" t="n">
-        <v>1757.702140310511</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V30" t="n">
-        <v>1522.550032078768</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W30" t="n">
-        <v>1268.312675350567</v>
+        <v>965.7098534163488</v>
       </c>
       <c r="X30" t="n">
-        <v>1060.461175145034</v>
+        <v>757.8583532108159</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.70087638008</v>
+        <v>550.0980544458621</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.31497076534461</v>
+        <v>91.3238872447422</v>
       </c>
       <c r="C31" t="n">
-        <v>79.9384446843589</v>
+        <v>73.94736116375643</v>
       </c>
       <c r="D31" t="n">
-        <v>79.9384446843589</v>
+        <v>75.36166255139359</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992287</v>
+        <v>78.93565920695752</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992287</v>
+        <v>83.512441339923</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998153</v>
+        <v>65.6115217999816</v>
       </c>
       <c r="H31" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906317</v>
+        <v>56.67269700900443</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32608743906317</v>
+        <v>56.67269700900443</v>
       </c>
       <c r="K31" t="n">
-        <v>59.15979528460637</v>
+        <v>60.50640485454763</v>
       </c>
       <c r="L31" t="n">
-        <v>268.1356757061164</v>
+        <v>120.9386656003902</v>
       </c>
       <c r="M31" t="n">
-        <v>490.78576420459</v>
+        <v>195.0451344231963</v>
       </c>
       <c r="N31" t="n">
-        <v>568.564763256745</v>
+        <v>352.4221994628484</v>
       </c>
       <c r="O31" t="n">
-        <v>624.3899622627118</v>
+        <v>556.7910181444827</v>
       </c>
       <c r="P31" t="n">
-        <v>797.1810015602433</v>
+        <v>729.582057442014</v>
       </c>
       <c r="Q31" t="n">
-        <v>817.4693369804066</v>
+        <v>811.4782534598047</v>
       </c>
       <c r="R31" t="n">
-        <v>800.1641651232003</v>
+        <v>794.1730816025984</v>
       </c>
       <c r="S31" t="n">
-        <v>729.4053275882957</v>
+        <v>723.4142440676937</v>
       </c>
       <c r="T31" t="n">
-        <v>651.6880263870765</v>
+        <v>645.6969428664745</v>
       </c>
       <c r="U31" t="n">
-        <v>514.0489396453733</v>
+        <v>508.0578561247711</v>
       </c>
       <c r="V31" t="n">
-        <v>410.9241082864075</v>
+        <v>404.9330247658054</v>
       </c>
       <c r="W31" t="n">
-        <v>273.0665950963681</v>
+        <v>267.0755115757659</v>
       </c>
       <c r="X31" t="n">
-        <v>196.636701045272</v>
+        <v>190.6456175246697</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.4037787486631</v>
+        <v>121.4126952280608</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028723</v>
+        <v>809.8470710028719</v>
       </c>
       <c r="F32" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601855</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754853</v>
+        <v>282.9894504754848</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450541</v>
+        <v>96.83435691450497</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210062</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491199</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L32" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
@@ -6716,19 +6716,19 @@
         <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
         <v>2544.422757287607</v>
@@ -6743,7 +6743,7 @@
         <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>685.002031119637</v>
+        <v>386.3913245399757</v>
       </c>
       <c r="C33" t="n">
-        <v>662.1086586854312</v>
+        <v>211.9382952588487</v>
       </c>
       <c r="D33" t="n">
-        <v>513.17424902418</v>
+        <v>63.00388559759745</v>
       </c>
       <c r="E33" t="n">
-        <v>353.9367940187245</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F33" t="n">
-        <v>207.4022360456094</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G33" t="n">
-        <v>166.0769629551536</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235048</v>
@@ -6783,10 +6783,10 @@
         <v>247.9535015325613</v>
       </c>
       <c r="L33" t="n">
-        <v>535.608518151891</v>
+        <v>535.6085181518908</v>
       </c>
       <c r="M33" t="n">
-        <v>923.2675763763536</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N33" t="n">
         <v>1336.893829743946</v>
@@ -6798,31 +6798,31 @@
         <v>1882.246958039272</v>
       </c>
       <c r="Q33" t="n">
-        <v>1985.558603119545</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1901.221085316631</v>
+        <v>1905.729692430813</v>
       </c>
       <c r="S33" t="n">
-        <v>1732.839313620733</v>
+        <v>1737.347920734914</v>
       </c>
       <c r="T33" t="n">
-        <v>1531.74544423388</v>
+        <v>1536.254051348061</v>
       </c>
       <c r="U33" t="n">
-        <v>1303.539661529372</v>
+        <v>1308.048268643553</v>
       </c>
       <c r="V33" t="n">
-        <v>1219.947210144551</v>
+        <v>1072.896160411811</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.26951026327</v>
+        <v>970.2184605305304</v>
       </c>
       <c r="X33" t="n">
-        <v>909.4180100577375</v>
+        <v>762.3669603249975</v>
       </c>
       <c r="Y33" t="n">
-        <v>701.6577112927837</v>
+        <v>554.6066615600437</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209084</v>
+        <v>95.90066937770726</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992276</v>
+        <v>78.52414329672158</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992276</v>
+        <v>79.93844468435883</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998147</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K34" t="n">
         <v>207.7034149602738</v>
@@ -6865,43 +6865,43 @@
         <v>416.679295381784</v>
       </c>
       <c r="M34" t="n">
-        <v>639.3293838802576</v>
+        <v>509.6597982371158</v>
       </c>
       <c r="N34" t="n">
-        <v>740.9707150081391</v>
+        <v>587.4387972892707</v>
       </c>
       <c r="O34" t="n">
-        <v>796.795914014106</v>
+        <v>643.2639962952376</v>
       </c>
       <c r="P34" t="n">
-        <v>821.0433336359699</v>
+        <v>816.0550355927691</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359699</v>
+        <v>816.0550355927691</v>
       </c>
       <c r="R34" t="n">
-        <v>803.7381617787637</v>
+        <v>798.7498637355627</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438592</v>
+        <v>727.9910262006582</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426401</v>
+        <v>650.2737249994391</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009368</v>
+        <v>512.6346382577358</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419711</v>
+        <v>409.5098068987701</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519318</v>
+        <v>271.6522937087307</v>
       </c>
       <c r="X34" t="n">
-        <v>200.2106977008357</v>
+        <v>195.2223996576346</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042269</v>
+        <v>125.9894773610257</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810911</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852422</v>
+        <v>743.2932336852431</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230561</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693754</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243305</v>
+        <v>307.5851632243314</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372717</v>
       </c>
       <c r="H35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I35" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020957</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K35" t="n">
         <v>226.9372683326557</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M35" t="n">
         <v>789.5552979241024</v>
@@ -6965,22 +6965,22 @@
         <v>1521.6953536967</v>
       </c>
       <c r="T35" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="U35" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V35" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W35" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548414</v>
       </c>
       <c r="X35" t="n">
         <v>1169.663137131897</v>
       </c>
       <c r="Y35" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>594.0244875673397</v>
+        <v>603.0062366453963</v>
       </c>
       <c r="C36" t="n">
-        <v>419.5714582862128</v>
+        <v>428.5532073642693</v>
       </c>
       <c r="D36" t="n">
-        <v>270.6370486249615</v>
+        <v>428.5532073642693</v>
       </c>
       <c r="E36" t="n">
-        <v>111.399593619506</v>
+        <v>269.3157523588138</v>
       </c>
       <c r="F36" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J36" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="K36" t="n">
-        <v>30.433907073934</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L36" t="n">
-        <v>223.1030253215076</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M36" t="n">
-        <v>599.7226253614408</v>
+        <v>862.971711063408</v>
       </c>
       <c r="N36" t="n">
-        <v>976.3422254013741</v>
+        <v>873.0305803211025</v>
       </c>
       <c r="O36" t="n">
-        <v>1288.313760533886</v>
+        <v>1185.002115453614</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616428</v>
       </c>
       <c r="Q36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1320.601484309848</v>
       </c>
       <c r="U36" t="n">
-        <v>1521.6953536967</v>
+        <v>1092.39570160534</v>
       </c>
       <c r="V36" t="n">
-        <v>1286.543245464957</v>
+        <v>857.2435933735978</v>
       </c>
       <c r="W36" t="n">
-        <v>1032.305888736756</v>
+        <v>603.0062366453963</v>
       </c>
       <c r="X36" t="n">
-        <v>970.0001233523617</v>
+        <v>603.0062366453963</v>
       </c>
       <c r="Y36" t="n">
-        <v>762.2398245874078</v>
+        <v>603.0062366453963</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="C37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="D37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="E37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="F37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="G37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="H37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="I37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="J37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="K37" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947722</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531984</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
@@ -7114,31 +7114,31 @@
         <v>326.6579621681119</v>
       </c>
       <c r="Q37" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="R37" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="S37" t="n">
-        <v>326.6579621681119</v>
+        <v>258.657325847454</v>
       </c>
       <c r="T37" t="n">
-        <v>326.6579621681119</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U37" t="n">
-        <v>277.2364804240509</v>
+        <v>94.98104162765443</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627275</v>
+        <v>80.0738152663311</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="X37" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393402</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393402</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810895</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E38" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F38" t="n">
         <v>307.5851632243302</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H38" t="n">
         <v>30.433907073934</v>
@@ -7172,22 +7172,22 @@
         <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326558</v>
       </c>
       <c r="L38" t="n">
         <v>485.3806706550286</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241025</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P38" t="n">
         <v>1477.958695736267</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>310.8172186369486</v>
+        <v>635.8847690121797</v>
       </c>
       <c r="C39" t="n">
-        <v>310.8172186369486</v>
+        <v>461.4317397310527</v>
       </c>
       <c r="D39" t="n">
-        <v>310.8172186369486</v>
+        <v>312.4973300698015</v>
       </c>
       <c r="E39" t="n">
-        <v>257.934151592621</v>
+        <v>153.259875064346</v>
       </c>
       <c r="F39" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G39" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H39" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I39" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J39" t="n">
-        <v>30.433907073934</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K39" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L39" t="n">
-        <v>119.7913802412349</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M39" t="n">
-        <v>496.4109802811682</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="N39" t="n">
-        <v>873.0305803211014</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="O39" t="n">
-        <v>1185.002115453613</v>
+        <v>1199.307472959207</v>
       </c>
       <c r="P39" t="n">
         <v>1418.383708616427</v>
@@ -7275,28 +7275,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S39" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T39" t="n">
-        <v>1236.263966506934</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U39" t="n">
-        <v>1008.058183802426</v>
+        <v>1293.489570992192</v>
       </c>
       <c r="V39" t="n">
-        <v>772.906075570683</v>
+        <v>1058.337462760449</v>
       </c>
       <c r="W39" t="n">
-        <v>518.6687188424814</v>
+        <v>804.1001060322478</v>
       </c>
       <c r="X39" t="n">
-        <v>310.8172186369486</v>
+        <v>804.1001060322478</v>
       </c>
       <c r="Y39" t="n">
-        <v>310.8172186369486</v>
+        <v>804.1001060322478</v>
       </c>
     </row>
     <row r="40">
@@ -7336,7 +7336,7 @@
         <v>34.2676149194772</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531982</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7348,25 +7348,25 @@
         <v>302.4105425462478</v>
       </c>
       <c r="P40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="Q40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="R40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="S40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="T40" t="n">
-        <v>326.6579621681119</v>
+        <v>326.6579621681118</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240509</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627276</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W40" t="n">
         <v>30.433907073934</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829037</v>
+        <v>976.4306445829033</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416671</v>
+        <v>830.5994560416666</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340916</v>
+        <v>695.4650858340913</v>
       </c>
       <c r="E41" t="n">
         <v>532.8081616350224</v>
@@ -7400,40 +7400,40 @@
         <v>344.9535852445899</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890038</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>139.9876132094124</v>
+        <v>64.82915620969246</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1722804618585</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842312</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533052</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250562</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316132</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.19370786547</v>
+        <v>1482.03525086575</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7448,7 +7448,7 @@
         <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
         <v>1306.907159824487</v>
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>319.5047450955498</v>
+        <v>329.9794298377832</v>
       </c>
       <c r="C42" t="n">
-        <v>319.5047450955498</v>
+        <v>329.9794298377832</v>
       </c>
       <c r="D42" t="n">
-        <v>319.5047450955498</v>
+        <v>181.0450201765319</v>
       </c>
       <c r="E42" t="n">
-        <v>319.5047450955498</v>
+        <v>181.0450201765319</v>
       </c>
       <c r="F42" t="n">
-        <v>172.9701871224348</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341688</v>
+        <v>58.8746889667042</v>
       </c>
       <c r="K42" t="n">
-        <v>34.51046220341688</v>
+        <v>221.2996017466754</v>
       </c>
       <c r="L42" t="n">
-        <v>322.1654788227465</v>
+        <v>508.954618366005</v>
       </c>
       <c r="M42" t="n">
-        <v>709.8245370472091</v>
+        <v>896.6136765904677</v>
       </c>
       <c r="N42" t="n">
-        <v>1123.450790414802</v>
+        <v>1310.23992995806</v>
       </c>
       <c r="O42" t="n">
-        <v>1435.422325547313</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="P42" t="n">
-        <v>1668.803918710128</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.523110170844</v>
@@ -7515,25 +7515,25 @@
         <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1557.141338474945</v>
+        <v>1624.64418267411</v>
       </c>
       <c r="T42" t="n">
-        <v>1356.047469088093</v>
+        <v>1423.550313287257</v>
       </c>
       <c r="U42" t="n">
-        <v>1127.841686383585</v>
+        <v>1195.344530582749</v>
       </c>
       <c r="V42" t="n">
-        <v>892.6895781518422</v>
+        <v>960.1924223510068</v>
       </c>
       <c r="W42" t="n">
-        <v>735.1165440660366</v>
+        <v>705.9550656228051</v>
       </c>
       <c r="X42" t="n">
-        <v>527.2650438605037</v>
+        <v>705.9550656228051</v>
       </c>
       <c r="Y42" t="n">
-        <v>319.5047450955498</v>
+        <v>498.1947668578512</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
         <v>38.34417004896008</v>
@@ -7597,22 +7597,22 @@
         <v>330.7345172975947</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486295</v>
+        <v>324.5888876486294</v>
       </c>
       <c r="U43" t="n">
-        <v>258.52147245918</v>
+        <v>258.5214724591799</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524681</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225913</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890038</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517596</v>
+        <v>64.82915620969246</v>
       </c>
       <c r="K44" t="n">
-        <v>260.478963837622</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>518.9223661599947</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M44" t="n">
-        <v>868.7903100533052</v>
+        <v>916.5241955517952</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250562</v>
+        <v>1210.988688749052</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316132</v>
+        <v>1443.855521814622</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1604.927593363959</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825903</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="R44" t="n">
         <v>1702.445641600257</v>
@@ -7679,19 +7679,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>277.7564138322609</v>
+        <v>208.9634914845439</v>
       </c>
       <c r="C45" t="n">
-        <v>277.7564138322609</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D45" t="n">
-        <v>128.8220041710097</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E45" t="n">
-        <v>128.8220041710097</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F45" t="n">
-        <v>128.8220041710097</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G45" t="n">
-        <v>128.8220041710097</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
         <v>58.8746889667042</v>
       </c>
       <c r="K45" t="n">
-        <v>227.1378762969151</v>
+        <v>58.8746889667042</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834629</v>
+        <v>346.5297055860337</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079256</v>
+        <v>734.1887638104964</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.169981875518</v>
+        <v>1147.815017178089</v>
       </c>
       <c r="O45" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.141338474945</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1356.047469088093</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1127.841686383585</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1115.820906551017</v>
+        <v>878.8126471832322</v>
       </c>
       <c r="W45" t="n">
-        <v>861.5835498228157</v>
+        <v>624.5752904550307</v>
       </c>
       <c r="X45" t="n">
-        <v>653.7320496172829</v>
+        <v>416.7237902494978</v>
       </c>
       <c r="Y45" t="n">
-        <v>445.971750852329</v>
+        <v>208.9634914845439</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C46" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341688</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
         <v>38.34417004896008</v>
@@ -7834,22 +7834,22 @@
         <v>330.7345172975947</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486295</v>
+        <v>203.2751013362059</v>
       </c>
       <c r="U46" t="n">
-        <v>258.52147245918</v>
+        <v>137.2076861467565</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524682</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146827</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.8242485158404</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720728</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L12" t="n">
-        <v>80.27972245565151</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>350.2410242442145</v>
+        <v>358.6087439961762</v>
       </c>
       <c r="N12" t="n">
-        <v>441.9619164368266</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,10 +8936,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627443</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,19 +9009,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>80.27972245565151</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5540958868385</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368266</v>
+        <v>282.8272049391373</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>214.1496969973129</v>
+        <v>82.72378564719548</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720728</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
-        <v>94.50242152751714</v>
+        <v>129.9408555788156</v>
       </c>
       <c r="L18" t="n">
-        <v>145.929466298089</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868385</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N18" t="n">
-        <v>441.9619164368266</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719548</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>160.1521653699552</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.27972245565152</v>
       </c>
       <c r="M21" t="n">
-        <v>84.29073146033343</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368266</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751714</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>168.95144027136</v>
       </c>
       <c r="P24" t="n">
-        <v>222.5174167492744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>274.8949934127966</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868391</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>71.69855201032328</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,25 +10899,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751714</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>170.5397963620161</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265198</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>304.012912573681</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>94.50242152751714</v>
+        <v>258.5679899921346</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719548</v>
       </c>
       <c r="Q42" t="n">
-        <v>163.0142032716506</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L45" t="n">
-        <v>233.5593123410534</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>322.1889047486052</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.0172406307679</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>102.3520145885491</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374222</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847003</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>157.4108408244888</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233409</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>248.2102341276253</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642671</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.999775854596928</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
         <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856301.2552200246</v>
+        <v>856301.255220025</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="C2" t="n">
+        <v>614457.2540377789</v>
+      </c>
+      <c r="D2" t="n">
         <v>614457.2540377786</v>
       </c>
-      <c r="C2" t="n">
-        <v>614457.2540377786</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614457.2540377788</v>
-      </c>
       <c r="E2" t="n">
-        <v>527280.1633737613</v>
+        <v>527280.1633737611</v>
       </c>
       <c r="F2" t="n">
         <v>527280.1633737612</v>
       </c>
       <c r="G2" t="n">
+        <v>615781.327398213</v>
+      </c>
+      <c r="H2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="H2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="I2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982116</v>
       </c>
       <c r="K2" t="n">
-        <v>615781.3273982117</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982117</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.3105547242</v>
+        <v>84530.31055472417</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>84530.31055472424</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239513</v>
+        <v>87131.09894239527</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510451</v>
+        <v>34584.19673510452</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,10 +26439,10 @@
         <v>386434.3043956758</v>
       </c>
       <c r="J4" t="n">
-        <v>385812.9384819478</v>
+        <v>385812.9384819477</v>
       </c>
       <c r="K4" t="n">
-        <v>385812.9384819478</v>
+        <v>385812.9384819477</v>
       </c>
       <c r="L4" t="n">
         <v>385812.9384819478</v>
@@ -26451,13 +26451,13 @@
         <v>386434.3043956758</v>
       </c>
       <c r="N4" t="n">
-        <v>386434.3043956759</v>
+        <v>386434.3043956758</v>
       </c>
       <c r="O4" t="n">
+        <v>385717.6584839226</v>
+      </c>
+      <c r="P4" t="n">
         <v>385717.6584839227</v>
-      </c>
-      <c r="P4" t="n">
-        <v>385717.6584839226</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678312</v>
+        <v>36923.20336678313</v>
       </c>
       <c r="F5" t="n">
-        <v>36923.20336678312</v>
+        <v>36923.20336678314</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="J5" t="n">
+        <v>57382.03161561137</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57382.03161561135</v>
+      </c>
+      <c r="L5" t="n">
         <v>57382.03161561136</v>
       </c>
-      <c r="K5" t="n">
-        <v>57382.03161561136</v>
-      </c>
-      <c r="L5" t="n">
-        <v>57382.03161561137</v>
-      </c>
       <c r="M5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431454</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431453</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139180.4040419581</v>
+        <v>139175.9904640903</v>
       </c>
       <c r="C6" t="n">
-        <v>139180.4040419581</v>
+        <v>139175.9904640903</v>
       </c>
       <c r="D6" t="n">
-        <v>139180.4040419584</v>
+        <v>139175.99046409</v>
       </c>
       <c r="E6" t="n">
-        <v>-148167.2970058421</v>
+        <v>-148462.3008859238</v>
       </c>
       <c r="F6" t="n">
-        <v>171038.8479131481</v>
+        <v>170743.8440330666</v>
       </c>
       <c r="G6" t="n">
-        <v>99010.53573349839</v>
+        <v>99010.53573349843</v>
       </c>
       <c r="H6" t="n">
-        <v>183540.8462882225</v>
+        <v>183540.8462882226</v>
       </c>
       <c r="I6" t="n">
-        <v>183540.8462882224</v>
+        <v>183540.8462882228</v>
       </c>
       <c r="J6" t="n">
-        <v>55670.29913944231</v>
+        <v>55670.29913944189</v>
       </c>
       <c r="K6" t="n">
-        <v>172586.3573006526</v>
+        <v>172586.3573006529</v>
       </c>
       <c r="L6" t="n">
-        <v>88056.04674592838</v>
+        <v>88056.04674592856</v>
       </c>
       <c r="M6" t="n">
-        <v>96409.74734582749</v>
+        <v>96409.74734582695</v>
       </c>
       <c r="N6" t="n">
         <v>183540.8462882223</v>
       </c>
       <c r="O6" t="n">
-        <v>147960.5264754957</v>
+        <v>147960.526475496</v>
       </c>
       <c r="P6" t="n">
-        <v>182544.7232106007</v>
+        <v>182544.7232106005</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327127</v>
@@ -26710,7 +26710,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="L2" t="n">
         <v>150.044060278452</v>
@@ -26719,7 +26719,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241752</v>
       </c>
       <c r="N4" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="O4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427111</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934052</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766586</v>
+        <v>87.33542894766589</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411212</v>
+        <v>27.9016979741121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006016</v>
+        <v>69.27158386006062</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853601</v>
+        <v>50.95693911853613</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934052</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G12" t="n">
-        <v>131.7166010327127</v>
+        <v>15.76699017642109</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>15.76699017642164</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>77.45106251930777</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="O13" t="n">
-        <v>103.6001376678609</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327127</v>
+        <v>116.6552291119084</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.32062995745122</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327127</v>
+        <v>131.7166010327126</v>
       </c>
     </row>
     <row r="14">
@@ -28418,7 +28418,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="G15" t="n">
-        <v>131.7166010327127</v>
+        <v>99.26113280130505</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="T15" t="n">
-        <v>15.76699017642164</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,7 +28506,7 @@
         <v>131.7166010327127</v>
       </c>
       <c r="J16" t="n">
-        <v>77.45106251930777</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327127</v>
@@ -28515,13 +28515,13 @@
         <v>131.7166010327127</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>116.655229111907</v>
+      </c>
+      <c r="O16" t="n">
         <v>131.7166010327127</v>
-      </c>
-      <c r="N16" t="n">
-        <v>131.7166010327127</v>
-      </c>
-      <c r="O16" t="n">
-        <v>39.20416659259934</v>
       </c>
       <c r="P16" t="n">
         <v>131.7166010327127</v>
@@ -28658,10 +28658,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>73.50614433242903</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,22 +28691,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>109.3429677306981</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
-        <v>220.0953094380075</v>
+        <v>39.6624250295751</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
@@ -28779,7 +28779,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="V19" t="n">
-        <v>56.9466048176854</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W19" t="n">
         <v>237.3794892261179</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -28895,7 +28895,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
         <v>80.15602968011626</v>
@@ -28934,16 +28934,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>200.1288771347976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>204.279767740718</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29004,13 +29004,13 @@
         <v>67.32062995745122</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>167.1761804170862</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
-        <v>213.7274844763127</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
         <v>237.3794892261179</v>
@@ -29022,7 +29022,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060477</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>90.29782976018258</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>97.30441194416608</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>66.71972573095607</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.15176894366235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -29363,13 +29363,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>139.1627955416127</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
         <v>80.15602968011626</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>33.21173989289804</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
         <v>150.044060278452</v>
@@ -29451,31 +29451,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>148.6838485916426</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930777</v>
+        <v>90.53251941791314</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>91.42399569050903</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R28" t="n">
         <v>150.044060278452</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="C29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="D29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="E29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="F29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="G29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="H29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="I29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="J29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="K29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="L29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="M29" t="n">
-        <v>150.0440602784523</v>
+        <v>150.0440602784525</v>
       </c>
       <c r="N29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="O29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="P29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="R29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="S29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="T29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="U29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="V29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="W29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="X29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>141.5386487128676</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29597,13 +29597,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>109.6433667609296</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="T30" t="n">
-        <v>66.03859081153905</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="C31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="E31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="G31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="H31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="I31" t="n">
-        <v>148.6838485916426</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="J31" t="n">
         <v>77.45106251930777</v>
@@ -29697,46 +29697,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>80.40208685605765</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.81389805862629</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="R31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="S31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="T31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="U31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="V31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="W31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="X31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784519</v>
       </c>
     </row>
     <row r="32">
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="C33" t="n">
-        <v>150.044060278452</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>96.16310731027644</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
         <v>80.15602968011626</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>4.463521043039862</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>150.044060278452</v>
@@ -29910,10 +29910,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29937,16 +29937,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
+        <v>19.06468084093504</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="N34" t="n">
-        <v>24.10336573305709</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>67.32062995745122</v>
@@ -30037,7 +30037,7 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T35" t="n">
-        <v>220.9000151151833</v>
+        <v>220.9000151151847</v>
       </c>
       <c r="U35" t="n">
         <v>237.3794892261179</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>45.65131323118064</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>144.0902774729275</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30195,7 +30195,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>226.984188467659</v>
+        <v>113.8719340166777</v>
       </c>
       <c r="U37" t="n">
         <v>237.3794892261179</v>
@@ -30210,7 +30210,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.15176894366235</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>105.2908440815166</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>23.47150408287602</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -30320,7 +30320,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -30435,13 +30435,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768548</v>
       </c>
       <c r="W40" t="n">
-        <v>56.94660481768534</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30478,10 +30478,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
-        <v>46.15486527700655</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30502,13 +30502,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>201.7688902471331</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
         <v>109.6433667609296</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.49414262488439</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>66.82781575717264</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30599,10 +30599,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>95.69767941597206</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30675,10 +30675,10 @@
         <v>220.9000151151833</v>
       </c>
       <c r="V43" t="n">
-        <v>100.799366665884</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658842</v>
       </c>
       <c r="X43" t="n">
         <v>220.9000151151833</v>
@@ -30715,7 +30715,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>46.15486527700659</v>
+        <v>124.1336792911212</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30739,10 +30739,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>54.32463664228737</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S44" t="n">
         <v>220.9000151151833</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -30791,7 +30791,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>16.27494021301273</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
         <v>80.15602968011626</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.49414262488439</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>220.9000151151833</v>
+        <v>69.75598096596008</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>28.51482456891306</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -30906,7 +30906,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>100.799366665884</v>
       </c>
       <c r="U46" t="n">
         <v>220.9000151151833</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,40 +31832,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N12" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R12" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J13" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O13" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P13" t="n">
         <v>27.2137837874944</v>
@@ -31944,10 +31944,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,40 +32069,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R15" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32145,31 +32145,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J16" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N16" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O16" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P16" t="n">
         <v>27.2137837874944</v>
@@ -32181,10 +32181,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N17" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,40 +32306,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R18" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J19" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O19" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P19" t="n">
         <v>27.2137837874944</v>
@@ -32418,10 +32418,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N20" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R21" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32619,31 +32619,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J22" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N22" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O22" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P22" t="n">
         <v>27.2137837874944</v>
@@ -32655,10 +32655,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N23" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,40 +32780,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H24" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R24" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J25" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O25" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P25" t="n">
         <v>27.2137837874944</v>
@@ -32892,10 +32892,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N26" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H27" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R27" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33093,31 +33093,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J28" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N28" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O28" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P28" t="n">
         <v>27.2137837874944</v>
@@ -33129,10 +33129,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N29" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,40 +33254,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H30" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R30" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33330,31 +33330,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J31" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N31" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O31" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P31" t="n">
         <v>27.2137837874944</v>
@@ -33366,10 +33366,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N32" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,40 +33491,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H33" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R33" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33567,31 +33567,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J34" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N34" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O34" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P34" t="n">
         <v>27.2137837874944</v>
@@ -33603,10 +33603,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I35" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N35" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33728,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H36" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J36" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R36" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33804,31 +33804,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J37" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N37" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O37" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P37" t="n">
         <v>27.2137837874944</v>
@@ -33840,10 +33840,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,40 +33965,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H39" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R39" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34041,31 +34041,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J40" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N40" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O40" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P40" t="n">
         <v>27.2137837874944</v>
@@ -34077,10 +34077,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N41" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,40 +34202,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H42" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R42" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34278,31 +34278,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J43" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N43" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O43" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P43" t="n">
         <v>27.2137837874944</v>
@@ -34314,10 +34314,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293628</v>
+        <v>0.5016183778293627</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944963</v>
+        <v>5.137199211944962</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126653</v>
+        <v>19.33864251126652</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529492</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881186</v>
+        <v>63.80773872881184</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930724</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603016</v>
+        <v>88.07979798603014</v>
       </c>
       <c r="N44" t="n">
-        <v>89.50502120203784</v>
+        <v>89.50502120203782</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749711</v>
+        <v>84.5170534574971</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483471</v>
+        <v>72.1333497548347</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882064</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632374</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948037</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634902</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,40 +34439,40 @@
         <v>0.2683894933829465</v>
       </c>
       <c r="H45" t="n">
-        <v>2.592077475566879</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298817</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018444</v>
+        <v>25.35692139018443</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684185</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422267</v>
+        <v>58.27465732422266</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935447</v>
+        <v>68.00377645935446</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068134</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782763</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713477</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095297</v>
+        <v>34.25968340095296</v>
       </c>
       <c r="R45" t="n">
         <v>16.66369152775874</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898148</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34515,31 +34515,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2250087354648516</v>
+        <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
         <v>2.000532211678409</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615721</v>
+        <v>6.76662633561572</v>
       </c>
       <c r="J46" t="n">
-        <v>15.90811759736501</v>
+        <v>15.908117597365</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309821</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109487</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N46" t="n">
         <v>34.43247312799863</v>
       </c>
       <c r="O46" t="n">
-        <v>31.8039619909774</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P46" t="n">
         <v>27.2137837874944</v>
@@ -34551,10 +34551,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964731</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225475</v>
+        <v>0.9614009606225473</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068141</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1107667815507</v>
+        <v>284.4784865335124</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
@@ -35507,7 +35507,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.26553851340485</v>
       </c>
       <c r="K13" t="n">
         <v>135.589033199928</v>
       </c>
       <c r="L13" t="n">
-        <v>192.7592886547759</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M13" t="n">
         <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399399</v>
+        <v>210.2812465399398</v>
       </c>
       <c r="O13" t="n">
-        <v>159.989227572878</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851006</v>
+        <v>141.1475721642963</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.3959710752614</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35656,16 +35656,16 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N14" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O14" t="n">
-        <v>235.2190232985547</v>
+        <v>235.2190232985557</v>
       </c>
       <c r="P14" t="n">
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241747</v>
+        <v>221.2891269264854</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>131.4259113501174</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3551970507805</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.26553851340491</v>
       </c>
       <c r="K16" t="n">
         <v>135.589033199928</v>
@@ -35811,13 +35811,13 @@
         <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>206.5716200456481</v>
+        <v>74.85501901293546</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399399</v>
+        <v>195.2198746191343</v>
       </c>
       <c r="O16" t="n">
-        <v>95.59325649761641</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
         <v>156.2089440851006</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068141</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.61033006392658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.43843405129849</v>
       </c>
       <c r="L18" t="n">
-        <v>65.64974384243747</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P18" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3551970507805</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L19" t="n">
         <v>61.04268762206326</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068235</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36136,10 +36136,10 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6990621710469</v>
+        <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850615</v>
+        <v>65.64974384243801</v>
       </c>
       <c r="L21" t="n">
-        <v>290.5606228478077</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>10.16047399766959</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L22" t="n">
         <v>61.04268762206326</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>90.21188375474314</v>
       </c>
       <c r="P24" t="n">
-        <v>139.7936311020789</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L25" t="n">
         <v>61.04268762206326</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K27" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L27" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M27" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N27" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O27" t="n">
         <v>315.1227627601127</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.623012255520734</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.360211686809415</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>13.08145689860536</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L28" t="n">
-        <v>152.4666833125723</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M28" t="n">
         <v>74.85501901293546</v>
       </c>
       <c r="N28" t="n">
-        <v>78.56464550722723</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
         <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100076</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K29" t="n">
         <v>317.907360533448</v>
@@ -36838,7 +36838,7 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
-        <v>457.2911585300423</v>
+        <v>457.2911585300425</v>
       </c>
       <c r="N29" t="n">
         <v>447.482942295883</v>
@@ -36847,13 +36847,13 @@
         <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362597</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K30" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L30" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M30" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N30" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O30" t="n">
         <v>315.1227627601127</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239567</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882809</v>
+        <v>3.610097631882752</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520678</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.360211686809358</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0867479005152</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8990792913874</v>
+        <v>74.85501901293546</v>
       </c>
       <c r="N31" t="n">
-        <v>78.56464550722723</v>
+        <v>158.9667323632849</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501707</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>174.5364033308398</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.49326810117507</v>
+        <v>82.72343032100071</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>180.6690037191344</v>
       </c>
       <c r="K32" t="n">
-        <v>317.9073605334481</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958831</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770078</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494999</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627279</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362609</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K33" t="n">
-        <v>169.9628154850615</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L33" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M33" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N33" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O33" t="n">
         <v>315.1227627601127</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37233,16 +37233,16 @@
         <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913875</v>
+        <v>93.9196998538705</v>
       </c>
       <c r="N34" t="n">
-        <v>102.6680112402843</v>
+        <v>78.56464550722723</v>
       </c>
       <c r="O34" t="n">
         <v>56.38908990501707</v>
       </c>
       <c r="P34" t="n">
-        <v>24.49234305238789</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,7 +37333,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.378022275413528e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>194.615270957145</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241752</v>
       </c>
       <c r="N36" t="n">
-        <v>380.423838424175</v>
+        <v>10.16047399767131</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37403,7 +37403,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L37" t="n">
         <v>61.04268762206326</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427583</v>
+        <v>44.17844238427582</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>90.2600739063646</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
         <v>380.423838424175</v>
       </c>
       <c r="N39" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
-        <v>235.7389829927417</v>
+        <v>221.2891269264855</v>
       </c>
       <c r="Q39" t="n">
         <v>104.3551970507805</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L40" t="n">
         <v>61.04268762206326</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604394</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>76.77980871768895</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37798,13 +37798,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.17844238427583</v>
+        <v>245.9473326314089</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372459</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392658</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>164.0655684646174</v>
       </c>
       <c r="L42" t="n">
-        <v>290.5606228478077</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N42" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.29211258658209</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L43" t="n">
         <v>61.04268762206326</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604394</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.6249434406824</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38023,7 +38023,7 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>353.4019635285965</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="N44" t="n">
         <v>297.4388820174311</v>
@@ -38035,10 +38035,10 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.17844238427583</v>
+        <v>98.50307902656319</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003574</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>23.31057431372459</v>
@@ -38096,25 +38096,25 @@
         <v>24.61033006392658</v>
       </c>
       <c r="K45" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>153.2795898854019</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M45" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N45" t="n">
-        <v>417.8042963309016</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
-        <v>315.1227627601127</v>
+        <v>243.4493482319884</v>
       </c>
       <c r="P45" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215354</v>
+        <v>3.872432167215351</v>
       </c>
       <c r="L46" t="n">
         <v>61.04268762206326</v>
